--- a/入札管理data.xlsx
+++ b/入札管理data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\kumamotobid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92E449B-EE67-49CF-86A8-8E1CD850D18F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD034AD0-FEBB-4EC4-8DD8-A700F3DC9898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -457,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V1"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -533,6 +533,7 @@
         <v>21</v>
       </c>
     </row>
+    <row r="5" spans="1:22" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/入札管理data.xlsx
+++ b/入札管理data.xlsx
@@ -1,123 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\kumamotobid\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD034AD0-FEBB-4EC4-8DD8-A700F3DC9898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>仕分番号</t>
-  </si>
-  <si>
-    <t>入札年月日</t>
-  </si>
-  <si>
-    <t>予定価格(税込)</t>
-  </si>
-  <si>
-    <t>発注者コード</t>
-  </si>
-  <si>
-    <t>業者コード</t>
-  </si>
-  <si>
-    <t>落札価格</t>
-  </si>
-  <si>
-    <t>施工番号・工事番号</t>
-  </si>
-  <si>
-    <t>工事名</t>
-  </si>
-  <si>
-    <t>工事場所</t>
-  </si>
-  <si>
-    <t>工種</t>
-  </si>
-  <si>
-    <t>入札参加者・備考</t>
-  </si>
-  <si>
-    <t>予定税抜</t>
-  </si>
-  <si>
-    <t>落札金額</t>
-  </si>
-  <si>
-    <t>差</t>
-  </si>
-  <si>
-    <t>落札率</t>
-  </si>
-  <si>
-    <t>Unnamed: 16</t>
-  </si>
-  <si>
-    <t>最低制限価格</t>
-  </si>
-  <si>
-    <t>最低÷予定</t>
-  </si>
-  <si>
-    <t>Unnamed: 19</t>
-  </si>
-  <si>
-    <t>積算価格</t>
-  </si>
-  <si>
-    <t>積算比</t>
-  </si>
-  <si>
-    <t>予定価格</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -132,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -456,86 +420,834 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:V14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>仕分番号</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>入札年月日</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>予定価格(税込)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>発注者コード</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>業者コード</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>落札価格</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>施工番号・工事番号</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>工事名</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>工事場所</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>工種</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>入札参加者・備考</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>予定税抜</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>落札金額</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>差</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>落札率</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 16</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>最低制限価格</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>最低÷予定</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 19</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>積算価格</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>積算比</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>予定価格</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2025/08/20 09:00:00</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>23,914,000円</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>入札前</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>入札前</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2525-5070260191</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>内牧坂梨線単県旧道移管工事</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>阿蘇市一の宮町北坂梨地内</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025/08/20 09:00:00</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>22,459,000円</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>入札前</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>入札前</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2525-5070260185</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>国道４４２号防災安全交付金（自転車走行空間整備）その１工事　他合併</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>阿蘇郡南小国町満願寺地内</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025/08/20 09:00:00</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>22,002,000円</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>入札前</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>入札前</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2525-5070260205</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>国道２６５号防災安全交付金（舗装補修）その２工事</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>阿蘇市一の宮町坂梨地内</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025/08/20 09:00:00</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>21,078,000円</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>入札前</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>入札前</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2525-5070260200</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>国道２１２号防災安全交付金（舗装補修）その１工事　他合併</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>阿蘇郡小国町下城地内</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025/08/20 09:00:00</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>20,631,000円</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>入札前</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>入札前</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2525-5070260204</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>国道２１２号防災安全交付金（舗装補修）その２工事　他合併</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>阿蘇郡小国町宮原地内</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025/08/20 09:00:00</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>19,303,000円</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>入札前</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>入札前</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2525-5070260192</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>国道２１２号防災安全交付金（自転車走行空間整備）その１工事　他合併</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>阿蘇市内牧地内</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025/08/20 09:00:00</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>18,524,000円</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>入札前</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>入札前</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2525-5070260187</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>別府一の宮線防災安全交付金（自転車走行空間整備）その１工事　他合併</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>阿蘇郡産山村田尻地内</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025/08/20 09:00:00</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>13,174,000円</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>入札前</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>入札前</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2525-5070260176</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>南小国波野線外単県道路舗装修繕工事</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>阿蘇郡南小国町他地内</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025/08/20 09:00:00</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>12,848,000円</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>入札前</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>入札前</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2525-5070260167</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>熊本高森線外単県道路舗装修繕工事</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>阿蘇郡西原村地内</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025/08/08 09:00:00</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>22,791,000円</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>（株）丸立</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>22,500,000</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2525-5070260154</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>熊本高森線防災安全交付金（自転車走行空間整備）その３工事　他合併</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>阿蘇郡南阿蘇村河陰地内</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025/08/08 09:00:00</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>22,439,000円</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>翔栄建設（株）</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>22,200,000</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2525-5070260151</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>熊本高森線防災安全交付金（自転車走行空間整備）その２工事　他合併</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>阿蘇郡南阿蘇村両併地内</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025/08/08 09:00:00</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>20,506,000円</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>（株）丸立</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>20,300,000</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2525-5070260159</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>国道３２５号防災安全交付金（舗装補修）その１工事</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>阿蘇郡南阿蘇村中松地内</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025/08/08 09:00:00</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>19,188,000円</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>翔栄建設（株）</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>18,950,000</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2525-5070260149</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>熊本高森線防災安全交付金（自転車走行空間整備）その１工事　他合併</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>阿蘇郡南阿蘇村両併地内</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>